--- a/data/Fatigue Test Summary.xlsx
+++ b/data/Fatigue Test Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\INDEX\TextBooks\Thesis\Engineering\Data\Raw Data\INL-A617 Fatigue\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WSL\ansto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC589D2-F6D5-4A5C-B331-E7A9E0D516C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EEAF15-547E-4896-8876-D33E7930CD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8256703-18E3-4A37-873F-D77E3726AC83}"/>
   </bookViews>
@@ -411,9 +411,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -431,6 +428,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,8 +748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D3B8EF-05CE-47B0-8AFA-A4ACB0CEF75E}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N43" sqref="N43:N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,39 +763,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9" t="s">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
     </row>
     <row r="2" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -833,17 +834,17 @@
       <c r="P2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
@@ -880,7 +881,7 @@
       <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="9"/>
+      <c r="Q3" s="15"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -2333,55 +2334,55 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="11">
-        <v>314626</v>
-      </c>
-      <c r="E32" s="11">
+      <c r="B32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="10">
+        <v>314626</v>
+      </c>
+      <c r="E32" s="10">
         <v>850</v>
       </c>
-      <c r="F32" s="11">
-        <v>1E-3</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="F32" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="G32" s="10">
         <v>0.3</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="11">
         <v>176.5</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="12">
         <v>-171.3</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="11">
         <v>7.7700000000000005E-2</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="13">
         <v>192.9</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="14">
         <v>-191.5</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M32" s="13">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N32" s="10">
         <v>9900</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O32" s="10">
         <v>10495</v>
       </c>
-      <c r="P32" s="11" t="s">
+      <c r="P32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="Q32" s="11" t="s">
+      <c r="Q32" s="10" t="s">
         <v>67</v>
       </c>
     </row>

--- a/data/Fatigue Test Summary.xlsx
+++ b/data/Fatigue Test Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WSL\ansto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EEAF15-547E-4896-8876-D33E7930CD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218648F2-19A2-43B2-9316-26B3D9D0E552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8256703-18E3-4A37-873F-D77E3726AC83}"/>
   </bookViews>
@@ -750,7 +750,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N43" sqref="N43:N44"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,7 +903,7 @@
         <v>1E-3</v>
       </c>
       <c r="G4" s="3">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H4" s="4">
         <v>149.69999999999999</v>
